--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -56,19 +56,10 @@
     <t>64 GB</t>
   </si>
   <si>
-    <t>1819.00 SR</t>
-  </si>
-  <si>
-    <t>2099.00 SR</t>
-  </si>
-  <si>
     <t>128 GB</t>
   </si>
   <si>
     <t>256 GB</t>
-  </si>
-  <si>
-    <t>2499.00 SR</t>
   </si>
 </sst>
 </file>
@@ -119,12 +110,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,7 +470,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" activeCellId="1" sqref="B4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +478,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +491,7 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -509,8 +505,8 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
+      <c r="D2" s="4">
+        <v>1819</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,11 +516,11 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2099</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2499</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zain" sheetId="3" r:id="rId1"/>
     <sheet name="Price" sheetId="4" r:id="rId2"/>
+    <sheet name="BrokenLinks" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -60,13 +61,22 @@
   </si>
   <si>
     <t>256 GB</t>
+  </si>
+  <si>
+    <t>urlFromExcel</t>
+  </si>
+  <si>
+    <t>https://www.jio.com</t>
+  </si>
+  <si>
+    <t>https://www.jio.com/shop/en-in/c/jiofi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +97,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -120,6 +138,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -469,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="B4 B2"/>
     </sheetView>
   </sheetViews>
@@ -541,4 +562,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zain" sheetId="3" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B4 B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -48,9 +48,6 @@
     <t>Black</t>
   </si>
   <si>
-    <t xml:space="preserve">White </t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>https://www.jio.com/shop/en-in/c/jiofi</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4">
         <v>1819</v>
@@ -535,10 +535,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>2099</v>
@@ -549,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>2499</v>
@@ -579,17 +579,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zain" sheetId="3" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>https://www.jio.com</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>https://www.jio.com/shop/en-in/c/jiofi</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zain" sheetId="3" r:id="rId1"/>
     <sheet name="Price" sheetId="4" r:id="rId2"/>
-    <sheet name="BrokenLinks" sheetId="6" r:id="rId3"/>
+    <sheet name="JioPlans" sheetId="7" r:id="rId3"/>
+    <sheet name="JioPlansNegative" sheetId="8" r:id="rId4"/>
+    <sheet name="BrokenLinks" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -70,13 +72,58 @@
   </si>
   <si>
     <t>https://www.jio.com/shop/en-in/c/jiofi</t>
+  </si>
+  <si>
+    <t>Plans</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>365 days</t>
+  </si>
+  <si>
+    <t>56 days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">730 GB </t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB </t>
+  </si>
+  <si>
+    <t>740GB &amp; Disney+ Hotstar</t>
+  </si>
+  <si>
+    <t>112GB &amp; Disney+ Hotstar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,26 +140,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,21 +197,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,7 +525,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,18 +536,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -491,7 +565,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,31 +573,31 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4">
@@ -531,13 +605,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3">
@@ -545,13 +619,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3">
@@ -566,10 +640,206 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>598</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2599</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2399</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>599</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>444</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>249</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>698</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2599</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2399</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>599</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>444</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2492</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +848,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -588,7 +858,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zain" sheetId="3" r:id="rId1"/>
@@ -47,76 +47,76 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>64 GB</t>
+  </si>
+  <si>
+    <t>128 GB</t>
+  </si>
+  <si>
+    <t>256 GB</t>
+  </si>
+  <si>
+    <t>urlFromExcel</t>
+  </si>
+  <si>
+    <t>https://www.jio.com</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>https://www.jio.com/shop/en-in/c/jiofi</t>
+  </si>
+  <si>
+    <t>Plans</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>365 days</t>
+  </si>
+  <si>
+    <t>56 days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">730 GB </t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB </t>
+  </si>
+  <si>
+    <t>740GB &amp; Disney+ Hotstar</t>
+  </si>
+  <si>
+    <t>112GB &amp; Disney+ Hotstar</t>
+  </si>
+  <si>
     <t>Black</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>64 GB</t>
-  </si>
-  <si>
-    <t>128 GB</t>
-  </si>
-  <si>
-    <t>256 GB</t>
-  </si>
-  <si>
-    <t>urlFromExcel</t>
-  </si>
-  <si>
-    <t>https://www.jio.com</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>https://www.jio.com/shop/en-in/c/jiofi</t>
-  </si>
-  <si>
-    <t>Plans</t>
-  </si>
-  <si>
-    <t>Validity</t>
-  </si>
-  <si>
-    <t>365 days</t>
-  </si>
-  <si>
-    <t>56 days</t>
-  </si>
-  <si>
-    <t>84 days</t>
-  </si>
-  <si>
-    <t>28 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">112 GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">168 GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">730 GB </t>
-  </si>
-  <si>
-    <t>30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GB </t>
-  </si>
-  <si>
-    <t>740GB &amp; Disney+ Hotstar</t>
-  </si>
-  <si>
-    <t>112GB &amp; Disney+ Hotstar</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +595,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>1819</v>
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>2099</v>
@@ -623,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>2499</v>
@@ -656,13 +656,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +670,10 @@
         <v>598</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,10 +681,10 @@
         <v>2599</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>2399</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +703,10 @@
         <v>599</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>444</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +725,10 @@
         <v>249</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -754,13 +754,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>698</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>2599</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>2399</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>599</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>444</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,10 +823,10 @@
         <v>2492</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -849,17 +849,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
